--- a/results/synechocystis_sp_pcc_6803/Day_night_cycles_Study/BAR_condition-specific_enrichment_analysis.xlsx
+++ b/results/synechocystis_sp_pcc_6803/Day_night_cycles_Study/BAR_condition-specific_enrichment_analysis.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e5.41-1_b_sunrise_30_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e5.41-13_a_sunrise_30_Presence" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e706.676-1_a_sunrise_30_Presence" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e706.676-6_a_sunrise_30_Presence" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e706.676-11_a_sunrise_30_Presence" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e5.41-1_b_sunrise_30" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e5.41-13_a_sunrise_30" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e706.676-1_a_sunrise_30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e706.676-6_a_sunrise_30" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e706.676-11_a_sunrise_30" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,64 +461,64 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.169469885689296e-70</v>
+        <v>1.176235022490825e-18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9775280898876404</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9775280898876404</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.319943197061126e-48</v>
+        <v>3.293666815795197e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9285714285714286</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.240876021016222e-43</v>
+        <v>0.0049830220579061</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6850393700787402</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6850393700787402</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -526,184 +526,184 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.915750818013593e-29</v>
+        <v>0.005658458857119817</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8627450980392157</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.709081623836506e-21</v>
+        <v>0.022910483574727</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8421052631578947</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.466002874444914e-16</v>
+        <v>0.022910483574727</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8846153846153846</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8846153846153846</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.993073188507465e-15</v>
+        <v>0.03350265920002886</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.287614670125052e-15</v>
+        <v>0.03350265920002886</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.43407628807211e-12</v>
+        <v>0.1043413974826531</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8260869565217391</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.665758671761205e-12</v>
+        <v>0.1043413974826531</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8947368421052632</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.359516587353128e-11</v>
+        <v>0.1044259410240795</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7407407407407407</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7407407407407407</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.672358813437577e-10</v>
+        <v>0.1044259410240795</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.052417778516311e-10</v>
+        <v>0.1044259410240795</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9285714285714286</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -712,245 +712,245 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.327684321117606e-10</v>
+        <v>0.152376628229014</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7391304347826086</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7391304347826086</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.100645451634498e-09</v>
+        <v>0.1737681424200587</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.869604396164392e-09</v>
+        <v>0.2213576097451132</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9230769230769231</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6.401448560297055e-09</v>
+        <v>0.2294523157130882</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.875</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7777777777777778</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.745808294969775e-08</v>
+        <v>0.2294523157130882</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.745808294969775e-08</v>
+        <v>0.2791467602782486</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.32407290724341e-06</v>
+        <v>0.2791467602782486</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7692307692307693</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.034000164386134e-06</v>
+        <v>0.307568517878037</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.034000164386134e-06</v>
+        <v>0.3239236578455347</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.034000164386134e-06</v>
+        <v>0.3480087969974536</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.034000164386134e-06</v>
+        <v>0.3921300642536864</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.034000164386134e-06</v>
+        <v>0.404304634552668</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.034000164386134e-06</v>
+        <v>0.404304634552668</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -959,368 +959,368 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.045542460228334e-05</v>
+        <v>0.4238938158611648</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.409551620842446e-05</v>
+        <v>0.4525142118776552</v>
       </c>
       <c r="D29" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="E29" t="n">
-        <v>0.875</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.883237235948441e-05</v>
+        <v>0.4719090852876574</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6923076923076923</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6923076923076923</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8.665238998189462e-05</v>
+        <v>0.5188528837576025</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8.665238998189462e-05</v>
+        <v>0.5188528837576025</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8.665238998189462e-05</v>
+        <v>0.6156955617379662</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0001588188968630419</v>
+        <v>0.7206207652246721</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0003787334757528169</v>
+        <v>0.7222532060540969</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6363636363636364</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.002474951477822099</v>
+        <v>0.7828239220760048</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8</v>
+        <v>0.625</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.003669522238512544</v>
+        <v>0.808612179795045</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.005314911357919008</v>
+        <v>0.8575877163879926</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.006517884913357297</v>
+        <v>0.9679633922900244</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6666666666666666</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.02382605284442652</v>
+        <v>0.9696100752154714</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02382605284442652</v>
+        <v>0.9905649884680591</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.02382605284442652</v>
+        <v>0.9905649884680591</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.02875045361176777</v>
+        <v>0.9977991639282582</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.568057508870328</v>
+        <v>0.9991069310225644</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.5741319224785957</v>
+        <v>0.9999979591392104</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1666666666666667</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0.9999999999998604</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.3761467889908257</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1330,12 +1330,12 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1349,16 +1349,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1368,16 +1368,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1387,16 +1387,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1425,7 +1425,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Fructose and mannose metabolism</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Steroid biosynthesis</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PHB byosynthesis</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Inositol phosphate metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1439,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1471,866 +1547,866 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.76439633169739e-61</v>
+        <v>7.768939111247325e-18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9213483146067416</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9213483146067416</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.594926813602061e-43</v>
+        <v>7.84870348958926e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8857142857142857</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8857142857142857</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.146201841530003e-42</v>
+        <v>0.00123148316006261</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6692913385826772</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6692913385826772</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.327885294216785e-30</v>
+        <v>0.002389114905474689</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8627450980392157</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8627450980392157</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.584230919612886e-21</v>
+        <v>0.01357674472082738</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8421052631578947</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.393648025957471e-16</v>
+        <v>0.02092877254799022</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8846153846153846</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8846153846153846</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5.989214949952993e-14</v>
+        <v>0.02092877254799022</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7666666666666667</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.336709645552675e-13</v>
+        <v>0.04289330418561944</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9444444444444444</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.237214405629145e-10</v>
+        <v>0.07637328825818915</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.210585363234881e-10</v>
+        <v>0.07637328825818915</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9285714285714286</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.557651235639391e-10</v>
+        <v>0.08709702299245581</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.9</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7391304347826086</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8.3517647675406e-10</v>
+        <v>0.1147618696270768</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.388788307525963e-09</v>
+        <v>0.1174341959238822</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9230769230769231</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.546859087961196e-09</v>
+        <v>0.1714140941160786</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.575756454685295e-09</v>
+        <v>0.1714140941160786</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.875</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7777777777777778</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.076797285984204e-09</v>
+        <v>0.1753338299065367</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.8</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6956521739130435</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.499966871117333e-08</v>
+        <v>0.203065996514702</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7368421052631579</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.788017011949506e-08</v>
+        <v>0.203065996514702</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.788017011949506e-08</v>
+        <v>0.2653340219374577</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.356754618301681e-08</v>
+        <v>0.2771317975236672</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9090909090909091</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.042899438485958e-06</v>
+        <v>0.2825851502299735</v>
       </c>
       <c r="D22" t="n">
         <v>0.7692307692307693</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7692307692307693</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.707436341581473e-06</v>
+        <v>0.3019593623078491</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.707436341581473e-06</v>
+        <v>0.3227387342523477</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.707436341581473e-06</v>
+        <v>0.3227387342523477</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.707436341581473e-06</v>
+        <v>0.3517930290678802</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.707436341581473e-06</v>
+        <v>0.3649428519996419</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.707436341581473e-06</v>
+        <v>0.4976169137236984</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.6875</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8.625452917401755e-06</v>
+        <v>0.526535826944678</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.187787849787101e-05</v>
+        <v>0.5722943179639008</v>
       </c>
       <c r="D30" t="n">
-        <v>0.875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E30" t="n">
-        <v>0.875</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.527034792122426e-05</v>
+        <v>0.6778872628006295</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6923076923076923</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7.648695051177348e-05</v>
+        <v>0.7121796075072669</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7.648695051177348e-05</v>
+        <v>0.8049211034632335</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7.648695051177348e-05</v>
+        <v>0.8477290279473189</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.5625</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0001348534196835689</v>
+        <v>0.8671210182050196</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.002247774114496358</v>
+        <v>0.9568230050455853</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.003405270418190129</v>
+        <v>0.9582662419292776</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.004677143972709298</v>
+        <v>0.9582662419292776</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.02266902040123681</v>
+        <v>0.9855872951779017</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.02266902040123681</v>
+        <v>0.9855872951779017</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02685046013534157</v>
+        <v>0.9949552812006172</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.2250294833228499</v>
+        <v>0.9974192868766019</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3333333333333333</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.479806241982302</v>
+        <v>0.9982924290115279</v>
       </c>
       <c r="D43" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E43" t="n">
-        <v>0.25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.5582727990788401</v>
+        <v>0.999857453087423</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.559523490766284</v>
+        <v>0.999973654932247</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1666666666666667</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0.999999999982645</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.3669724770642202</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2340,16 +2416,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2359,16 +2435,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2378,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2397,12 +2473,12 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2416,16 +2492,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2435,7 +2511,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Steroid biosynthesis</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Cyanophycin metabolism</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Fructose and mannose metabolism</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Inositol phosphate metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2449,7 +2601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2481,496 +2633,496 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.779758107532242e-64</v>
+        <v>3.770136520100908e-19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9438202247191011</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9438202247191011</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.604167298014552e-46</v>
+        <v>2.487268704192055e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9142857142857143</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9142857142857143</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.559778060794293e-41</v>
+        <v>0.004232237556829947</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6692913385826772</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6692913385826772</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.294185216454459e-29</v>
+        <v>0.004314880097370708</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8627450980392157</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8627450980392157</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.311936354833703e-21</v>
+        <v>0.02067891795076915</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8421052631578947</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.014735396853659e-16</v>
+        <v>0.02067891795076915</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8846153846153846</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8846153846153846</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.696659011243525e-15</v>
+        <v>0.03055328015563468</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.300180177900382e-15</v>
+        <v>0.03055328015563468</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.217050935279312e-12</v>
+        <v>0.09821907821193741</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8260869565217391</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8260869565217391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.14850920169286e-11</v>
+        <v>0.09821907821193741</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7407407407407407</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7407407407407407</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.68080752370973e-11</v>
+        <v>0.1447971977763614</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8421052631578947</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.503008542553601e-10</v>
+        <v>0.1604755776979887</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.617934797947804e-10</v>
+        <v>0.2063685195847128</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7391304347826086</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.981170447752164e-10</v>
+        <v>0.2168753380924086</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.682732076271674e-09</v>
+        <v>0.2168753380924086</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.875</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9230769230769231</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.683887287691051e-09</v>
+        <v>0.2402249901042513</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7777777777777778</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.014548660285946e-08</v>
+        <v>0.2626760362306215</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8571428571428571</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.381545575827554e-08</v>
+        <v>0.2626760362306215</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.381545575827554e-08</v>
+        <v>0.2800504854027688</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.216751799047114e-06</v>
+        <v>0.3141740932743639</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7692307692307693</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7692307692307693</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.799568934165973e-06</v>
+        <v>0.330467846191499</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8181818181818182</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.911716296788213e-06</v>
+        <v>0.3593449925404602</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Aminosugars metabolism</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3776877955984811</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E24" t="n">
         <v>6</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Riboflavin metabolism</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1.911716296788213e-06</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.911716296788213e-06</v>
+        <v>0.3776877955984811</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.911716296788213e-06</v>
+        <v>0.3809505837898382</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.911716296788213e-06</v>
+        <v>0.3809505837898382</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -2979,387 +3131,387 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9.766738255949983e-06</v>
+        <v>0.3981058008858188</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.326626258846407e-05</v>
+        <v>0.4315985861683478</v>
       </c>
       <c r="D29" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="E29" t="n">
-        <v>0.875</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.748512610849277e-05</v>
+        <v>0.4623998193320124</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6923076923076923</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6923076923076923</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.672172343854522e-05</v>
+        <v>0.4870766888086586</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8571428571428571</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8.290499953903739e-05</v>
+        <v>0.4870766888086586</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8.290499953903739e-05</v>
+        <v>0.594169171831095</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8.290499953903739e-05</v>
+        <v>0.6892017897296328</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0001498823086462255</v>
+        <v>0.7693298609471462</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.00074614077811877</v>
+        <v>0.847740096414025</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5833333333333334</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.002391979184561247</v>
+        <v>0.9134144227933286</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.003573633518391117</v>
+        <v>0.9308341371832212</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.006307066160957111</v>
+        <v>0.947394880483701</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6666666666666666</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.02340952116487822</v>
+        <v>0.9675308345830775</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02340952116487822</v>
+        <v>0.9675308345830775</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.02340952116487822</v>
+        <v>0.9896929277223026</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.02806296763299321</v>
+        <v>0.9896929277223026</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Arginine and proline metabolism</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9938474848210623</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="E44" t="n">
         <v>31</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Glutathione metabolism</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0.4857588119089982</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.5645830851785086</v>
+        <v>0.9988823320242408</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.5689481200891693</v>
+        <v>0.9999964754506485</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1666666666666667</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0.999999999999887</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.3669724770642202</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -3369,16 +3521,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -3388,16 +3540,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -3407,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -3426,16 +3578,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -3445,7 +3597,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Biotin metabolism</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Fructose and mannose metabolism</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Thiamine metabolism</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Inositol phosphate metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3459,7 +3687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3491,306 +3719,306 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.169469885689296e-70</v>
+        <v>2.572814411011295e-19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9775280898876404</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9775280898876404</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.09354761185468e-52</v>
+        <v>2.263532961492989e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9571428571428572</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9571428571428572</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.240876021016222e-43</v>
+        <v>0.003835530194395211</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6850393700787402</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6850393700787402</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.915750818013593e-29</v>
+        <v>0.004111342573721397</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8627450980392157</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8627450980392157</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.709081623836506e-21</v>
+        <v>0.01997976562370713</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8421052631578947</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.466002874444914e-16</v>
+        <v>0.01997976562370713</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8846153846153846</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8846153846153846</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.993073188507465e-15</v>
+        <v>0.02962277750459355</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.287614670125052e-15</v>
+        <v>0.02962277750459355</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.43407628807211e-12</v>
+        <v>0.09621975852183742</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8260869565217391</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8260869565217391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.111965910990478e-11</v>
+        <v>0.09621975852183742</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7826086956521739</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7826086956521739</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.375589991453206e-11</v>
+        <v>0.1423388841581664</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8421052631578947</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.672358813437577e-10</v>
+        <v>0.1562161842534142</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.944387506119361e-10</v>
+        <v>0.2015319982915396</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7037037037037037</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.100645451634498e-09</v>
+        <v>0.2127925263579362</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.869604396164392e-09</v>
+        <v>0.2127925263579362</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.875</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9230769230769231</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6.401448560297055e-09</v>
+        <v>0.2342914835709776</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7777777777777778</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -3799,231 +4027,231 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.745808294969775e-08</v>
+        <v>0.2573244718830396</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.745808294969775e-08</v>
+        <v>0.2573244718830396</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.855448813037733e-08</v>
+        <v>0.3109682538194126</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9090909090909091</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.555761987628876e-07</v>
+        <v>0.3247290232458284</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.8</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7857142857142857</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.32407290724341e-06</v>
+        <v>0.3525847117519578</v>
       </c>
       <c r="D22" t="n">
         <v>0.7692307692307693</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7692307692307693</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Citrate cycle (TCA cycle)</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3729345123398112</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E23" t="n">
         <v>6</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Riboflavin metabolism</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2.034000164386134e-06</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.034000164386134e-06</v>
+        <v>0.3729345123398112</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.034000164386134e-06</v>
+        <v>0.3896454485126076</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.034000164386134e-06</v>
+        <v>0.4247018926575393</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.034000164386134e-06</v>
+        <v>0.4592515721072287</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.045542460228334e-05</v>
+        <v>0.4765485543842419</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.409551620842446e-05</v>
+        <v>0.5856286699201414</v>
       </c>
       <c r="D29" t="n">
-        <v>0.875</v>
+        <v>0.6875</v>
       </c>
       <c r="E29" t="n">
-        <v>0.875</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4031,341 +4259,341 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.883237235948441e-05</v>
+        <v>0.5856286699201414</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6923076923076923</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8.079741078529602e-05</v>
+        <v>0.6389959010692552</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8571428571428571</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8.665238998189462e-05</v>
+        <v>0.6549368696171459</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8.665238998189462e-05</v>
+        <v>0.6778798889636891</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8.665238998189462e-05</v>
+        <v>0.7330832279411252</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0001588188968630419</v>
+        <v>0.7647564658622329</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.0007885074418319654</v>
+        <v>0.7873063283321112</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5833333333333334</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.002474951477822099</v>
+        <v>0.8443797222808453</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.003669522238512544</v>
+        <v>0.9112992190843135</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.006517884913357297</v>
+        <v>0.9453869850338545</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6666666666666666</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.02382605284442652</v>
+        <v>0.9668172454930919</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02382605284442652</v>
+        <v>0.9668172454930919</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.02382605284442652</v>
+        <v>0.9796781088766541</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.02875045361176777</v>
+        <v>0.9893892354774422</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.4890436385417296</v>
+        <v>0.9893892354774422</v>
       </c>
       <c r="D44" t="n">
         <v>0.25</v>
       </c>
       <c r="E44" t="n">
-        <v>0.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.568057508870328</v>
+        <v>0.9977602514863531</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.5741319224785957</v>
+        <v>0.9999957884719449</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1666666666666667</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0.99999999999638</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.3853211009174312</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4379,16 +4607,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4398,16 +4626,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -4417,16 +4645,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -4436,16 +4664,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -4455,7 +4683,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Fructose and mannose metabolism</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Steroid biosynthesis</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PHB byosynthesis</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Inositol phosphate metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4469,7 +4773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4501,539 +4805,539 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.119216318615816e-70</v>
+        <v>1.446473351731723e-19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9775280898876404</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9775280898876404</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.096153922978451e-52</v>
+        <v>1.963874544047566e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9571428571428572</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9571428571428572</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.139766090349481e-42</v>
+        <v>0.003304078057593785</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6771653543307087</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6771653543307087</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.400213256424738e-29</v>
+        <v>0.003822694817982798</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8627450980392157</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8627450980392157</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.561871843505523e-21</v>
+        <v>0.01897088015406617</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8421052631578947</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.098157190168354e-16</v>
+        <v>0.02827422626801484</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8846153846153846</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8846153846153846</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.75238868679532e-15</v>
+        <v>0.02827422626801484</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8.908022700767269e-14</v>
+        <v>0.09328444026750336</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7666666666666667</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.752639632620851e-11</v>
+        <v>0.09328444026750336</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7826086956521739</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7826086956521739</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.752639632620851e-11</v>
+        <v>0.1120043412935529</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.9</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7826086956521739</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.812674476632414e-11</v>
+        <v>0.1387141243492511</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8421052631578947</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.535564684269564e-10</v>
+        <v>0.1499853314408772</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.71361405607636e-10</v>
+        <v>0.2067702176797092</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.875</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7037037037037037</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.017899544761752e-09</v>
+        <v>0.2067702176797092</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Folate biosynthesis</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.225570743504668</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E16" t="n">
         <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Histidine metabolism</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1.718680146618839e-09</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.821179985190331e-09</v>
+        <v>0.2494277422733341</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7777777777777778</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.452342542043799e-08</v>
+        <v>0.2494277422733341</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.452342542043799e-08</v>
+        <v>0.306200501466452</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.392994982568415e-08</v>
+        <v>0.3162241340387679</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9090909090909091</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.237575318163205e-06</v>
+        <v>0.3425620942878737</v>
       </c>
       <c r="D21" t="n">
         <v>0.7692307692307693</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7692307692307693</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Citrate cycle (TCA cycle)</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3658625447579897</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E22" t="n">
         <v>6</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Riboflavin metabolism</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1.935655499073576e-06</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.935655499073576e-06</v>
+        <v>0.3658625447579897</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.935655499073576e-06</v>
+        <v>0.3770923854248761</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.935655499073576e-06</v>
+        <v>0.414432600492015</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.935655499073576e-06</v>
+        <v>0.4545493651079572</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3.738558115913147e-06</v>
+        <v>0.4608392876119699</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7142857142857143</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9.901249203524645e-06</v>
+        <v>0.4608392876119699</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.342870856824028e-05</v>
+        <v>0.5736415680220838</v>
       </c>
       <c r="D29" t="n">
-        <v>0.875</v>
+        <v>0.6875</v>
       </c>
       <c r="E29" t="n">
-        <v>0.875</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -5041,341 +5345,341 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.774765385914442e-05</v>
+        <v>0.5736415680220838</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6923076923076923</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.752300273789672e-05</v>
+        <v>0.5761412394513334</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8571428571428571</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8.364390327824449e-05</v>
+        <v>0.6438686074178606</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8.364390327824449e-05</v>
+        <v>0.6541783352557431</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8.364390327824449e-05</v>
+        <v>0.6606438251371751</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0001516352020560625</v>
+        <v>0.7194795341713967</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.0007544616761503884</v>
+        <v>0.7578278911999005</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5833333333333334</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.002408408617168243</v>
+        <v>0.8392668788863878</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.003592675970531744</v>
+        <v>0.9422739513887785</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.0234925336512785</v>
+        <v>0.9657273771738666</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0234925336512785</v>
+        <v>0.9657273771738666</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.0234925336512785</v>
+        <v>0.9780164769553877</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.02819967043414325</v>
+        <v>0.9889211754120174</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.2314240395815697</v>
+        <v>0.9889211754120174</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3333333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Arginine and proline metabolism</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9924378575279428</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="E44" t="n">
         <v>31</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Glutathione metabolism</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0.4864170406297547</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.5652797522422232</v>
+        <v>0.998850782883821</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.569987872640736</v>
+        <v>0.9999945193309739</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1666666666666667</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0.999999999998446</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.3761467889908257</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -5389,16 +5693,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -5408,16 +5712,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -5427,16 +5731,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -5446,16 +5750,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -5465,7 +5769,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Fructose and mannose metabolism</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Steroid biosynthesis</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PHB byosynthesis</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Inositol phosphate metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
